--- a/biology/Zoologie/Caprimulgidae/Caprimulgidae.xlsx
+++ b/biology/Zoologie/Caprimulgidae/Caprimulgidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caprimulgidae, ou Caprimulgidés en français, sont une famille d'oiseaux constituée d'environ 95 espèces existantes d'engoulevents.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les engoulevents sont des oiseaux crépusculaires et nocturnes, de taille petite à moyenne (9 à 25 cm), aux ailes longues et étroites. Leurs pattes sont courtes, mais leurs doigts puissants portent des griffes acérées. Ils ont un plumage généralement gris-brun.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosmopolites, ils vivent dans une large variété d'habitats, rarement loin de l'eau.
 </t>
@@ -573,7 +589,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces de cette famille hibernent, ce qui est rare chez les oiseaux.
 </t>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom latin Caprimulgus signifie « suceur de chèvre » car jadis, les paysans croyaient que l'engoulevent, oiseau du crépuscule, pénétrait dans les étables à la nuit tombée pour sucer le pis des bêtes.
 Leur nom français vient de l'occitan Engola-vent signifiant littéralement avale-vent en raison de leur réputation de voler le bec ouvert pour avaler leurs proies.
@@ -639,11 +659,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Suivant les travaux phylogénétiques de Han et al. (2010), la taxinomie de ce groupe est entièrement révisée. Les sous-familles traditionnelles des Caprimulgidae (Caprimulginae et Chordeilinae) ne sont pas soutenues par l'étude, qui montre qu'aucune n'est monophylétique. C'est le cas aussi pour une autre sous-famille proposée, les Eurostopodinae. Han et al. suggèrent de ne pas établir de sous-familles tant que des analyses complémentaires ne sont pas faites pour évaluer la monophylie du genre Eurostopodus.
-Liste des genres et espèces
-Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018)[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caprimulgidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caprimulgidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des genres et espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018) :
 Eurostopodus Gould, 1838
 Eurostopodus argus – Engoulevent argus
 Eurostopodus mystacalis – Engoulevent moustac
